--- a/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
+++ b/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="3340" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="3450" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="User_CreateApproveView" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="BlockUnBlock_View_User" sheetId="11" r:id="rId9"/>
     <sheet name="Profile_Add" sheetId="17" r:id="rId10"/>
     <sheet name="Profile_Approve" sheetId="43" r:id="rId11"/>
-    <sheet name="Profile_ModifyRepairApproveList" sheetId="18" r:id="rId12"/>
+    <sheet name="Profile_Modify" sheetId="18" r:id="rId12"/>
     <sheet name="Profile_Remove" sheetId="19" r:id="rId13"/>
     <sheet name="Profile_List" sheetId="42" r:id="rId14"/>
     <sheet name="Group_Add" sheetId="37" r:id="rId15"/>
@@ -46,7 +46,7 @@
     <sheet name="NameMatching_Delete" sheetId="34" r:id="rId37"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="L1:W9"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="533">
   <si>
     <t>Username</t>
   </si>
@@ -457,18 +457,9 @@
     <t>Profile Name</t>
   </si>
   <si>
-    <t>Profile Description</t>
-  </si>
-  <si>
     <t>Original Profile Name</t>
   </si>
   <si>
-    <t>TestProfile1111</t>
-  </si>
-  <si>
-    <t>testprofile1111</t>
-  </si>
-  <si>
     <t>TestProfile114</t>
   </si>
   <si>
@@ -697,9 +688,6 @@
     <t>fgfd</t>
   </si>
   <si>
-    <t>TestProfile112</t>
-  </si>
-  <si>
     <t>Maker1</t>
   </si>
   <si>
@@ -739,913 +727,934 @@
     <t>User-Modify/Repair</t>
   </si>
   <si>
+    <t>Group-List</t>
+  </si>
+  <si>
+    <t>Group-Add</t>
+  </si>
+  <si>
+    <t>Group-Modify</t>
+  </si>
+  <si>
+    <t>Group-Approve</t>
+  </si>
+  <si>
+    <t>Group-Block</t>
+  </si>
+  <si>
+    <t>Group-Unblock</t>
+  </si>
+  <si>
+    <t>Group-Remove</t>
+  </si>
+  <si>
+    <t>Group-ReportBuild</t>
+  </si>
+  <si>
+    <t>Group-ReportView</t>
+  </si>
+  <si>
+    <t>Profiles-List</t>
+  </si>
+  <si>
+    <t>Profiles-Add</t>
+  </si>
+  <si>
+    <t>Profiles-Modify/Repair</t>
+  </si>
+  <si>
+    <t>Profiles-Approve</t>
+  </si>
+  <si>
+    <t>Profiles-Remove</t>
+  </si>
+  <si>
+    <t>Profiles-ReportBuild</t>
+  </si>
+  <si>
+    <t>Profiles-ReportView</t>
+  </si>
+  <si>
+    <t>Login Matrix-List</t>
+  </si>
+  <si>
+    <t>Login Matrix-Add</t>
+  </si>
+  <si>
+    <t>Login Matrix-Modify</t>
+  </si>
+  <si>
+    <t>Login Matrix-Delete</t>
+  </si>
+  <si>
+    <t>Environment-Global/Processes</t>
+  </si>
+  <si>
+    <t>Environment-Run</t>
+  </si>
+  <si>
+    <t>Environment-Show</t>
+  </si>
+  <si>
+    <t>Calendar-View</t>
+  </si>
+  <si>
+    <t>Calendar-Create</t>
+  </si>
+  <si>
+    <t>Calendar-Modify/Repair</t>
+  </si>
+  <si>
+    <t>Calendar-Approve</t>
+  </si>
+  <si>
+    <t>Certificate-List</t>
+  </si>
+  <si>
+    <t>Certificate-Add</t>
+  </si>
+  <si>
+    <t>Certificate-Modify</t>
+  </si>
+  <si>
+    <t>Certificate-Delete</t>
+  </si>
+  <si>
+    <t>NPCI Certificate-List</t>
+  </si>
+  <si>
+    <t>NPCI Certificate-Add</t>
+  </si>
+  <si>
+    <t>NPCI Certificate-Modify</t>
+  </si>
+  <si>
+    <t>NPCI Certificate-Delete</t>
+  </si>
+  <si>
+    <t>Customer-List</t>
+  </si>
+  <si>
+    <t>Customer-Add</t>
+  </si>
+  <si>
+    <t>Customer-Approve</t>
+  </si>
+  <si>
+    <t>Customer-Modify</t>
+  </si>
+  <si>
+    <t>Customer-Delete</t>
+  </si>
+  <si>
+    <t>Customer-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Customer-Scheme/Format Code Mapping</t>
+  </si>
+  <si>
+    <t>Scheme-List</t>
+  </si>
+  <si>
+    <t>Scheme-Add</t>
+  </si>
+  <si>
+    <t>Scheme-Approve</t>
+  </si>
+  <si>
+    <t>Scheme-Modify</t>
+  </si>
+  <si>
+    <t>Scheme-Delete</t>
+  </si>
+  <si>
+    <t>Scheme-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Scheme-Upload</t>
+  </si>
+  <si>
+    <t>Scheme-Download</t>
+  </si>
+  <si>
+    <t>Relationship Manager-List</t>
+  </si>
+  <si>
+    <t>Relationship Manager-Add</t>
+  </si>
+  <si>
+    <t>Relationship Manager-Approve</t>
+  </si>
+  <si>
+    <t>Relationship Manager-Modify</t>
+  </si>
+  <si>
+    <t>Relationship Manager-Delete</t>
+  </si>
+  <si>
+    <t>Relationship Manager-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Miscellaneous-List</t>
+  </si>
+  <si>
+    <t>Miscellaneous-Add</t>
+  </si>
+  <si>
+    <t>Miscellaneous-Approve</t>
+  </si>
+  <si>
+    <t>Miscellaneous-Modify</t>
+  </si>
+  <si>
+    <t>Miscellaneous-Delete</t>
+  </si>
+  <si>
+    <t>Miscellaneous-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Accounting-List</t>
+  </si>
+  <si>
+    <t>Accounting-Add</t>
+  </si>
+  <si>
+    <t>Accounting-Approve</t>
+  </si>
+  <si>
+    <t>Accounting-Modify</t>
+  </si>
+  <si>
+    <t>Accounting-Delete</t>
+  </si>
+  <si>
+    <t>Accounting-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Authorization-List</t>
+  </si>
+  <si>
+    <t>Authorization-Add</t>
+  </si>
+  <si>
+    <t>Authorization-Approve</t>
+  </si>
+  <si>
+    <t>Authorization-Modify</t>
+  </si>
+  <si>
+    <t>Authorization-Delete</t>
+  </si>
+  <si>
+    <t>Authorization-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Alert and Notification-List</t>
+  </si>
+  <si>
+    <t>Alert and Notification-Add</t>
+  </si>
+  <si>
+    <t>Alert and Notification-Approve</t>
+  </si>
+  <si>
+    <t>Alert and Notification-Modify</t>
+  </si>
+  <si>
+    <t>Alert and Notification-Delete</t>
+  </si>
+  <si>
+    <t>Alert and Notification-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-List</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-Add</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-Approve</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-Modify</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-Delete</t>
+  </si>
+  <si>
+    <t>Mode Of Operation-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Industry Type-List</t>
+  </si>
+  <si>
+    <t>Industry Type-Add</t>
+  </si>
+  <si>
+    <t>Industry Type-Approve</t>
+  </si>
+  <si>
+    <t>Industry Type-Modify</t>
+  </si>
+  <si>
+    <t>Industry Type-Delete</t>
+  </si>
+  <si>
+    <t>Industry Type-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Business Group-List</t>
+  </si>
+  <si>
+    <t>Business Group-Add</t>
+  </si>
+  <si>
+    <t>Business Group-Approve</t>
+  </si>
+  <si>
+    <t>Business Group-Modify</t>
+  </si>
+  <si>
+    <t>Business Group-Delete</t>
+  </si>
+  <si>
+    <t>Business Group-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Duplicate Check-List</t>
+  </si>
+  <si>
+    <t>Duplicate Check-Add</t>
+  </si>
+  <si>
+    <t>Duplicate Check-Approve</t>
+  </si>
+  <si>
+    <t>Duplicate Check-Modify</t>
+  </si>
+  <si>
+    <t>Duplicate Check-Delete</t>
+  </si>
+  <si>
+    <t>Duplicate Check-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Represent Mapping-List</t>
+  </si>
+  <si>
+    <t>Represent Mapping-Add</t>
+  </si>
+  <si>
+    <t>Represent Mapping-Approve</t>
+  </si>
+  <si>
+    <t>Represent Mapping-Modify</t>
+  </si>
+  <si>
+    <t>Represent Mapping-Delete</t>
+  </si>
+  <si>
+    <t>Represent Mapping-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Vendor-List</t>
+  </si>
+  <si>
+    <t>Vendor-Add</t>
+  </si>
+  <si>
+    <t>Vendor-Approve</t>
+  </si>
+  <si>
+    <t>Vendor-Modify</t>
+  </si>
+  <si>
+    <t>Vendor-Delete</t>
+  </si>
+  <si>
+    <t>Vendor-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Vendor-Scheme/Format Code Mapping</t>
+  </si>
+  <si>
+    <t>Charge-List</t>
+  </si>
+  <si>
+    <t>Charge-Add</t>
+  </si>
+  <si>
+    <t>Charge-Approve</t>
+  </si>
+  <si>
+    <t>Charge-Modify</t>
+  </si>
+  <si>
+    <t>Charge-Delete</t>
+  </si>
+  <si>
+    <t>Charge-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Corporate Charge Posting-List</t>
+  </si>
+  <si>
+    <t>Corporate Charge Posting-Add</t>
+  </si>
+  <si>
+    <t>Corporate Charge Posting-Modify</t>
+  </si>
+  <si>
+    <t>Corporate Charge Posting-Generate Report</t>
+  </si>
+  <si>
+    <t>Corporate Charge Posting-Charge Posting</t>
+  </si>
+  <si>
+    <t>IFSCCODE-List</t>
+  </si>
+  <si>
+    <t>IFSCCODE-Add</t>
+  </si>
+  <si>
+    <t>IFSCCODE-Approve</t>
+  </si>
+  <si>
+    <t>IFSCCODE-Modify</t>
+  </si>
+  <si>
+    <t>IFSCCODE-Delete</t>
+  </si>
+  <si>
+    <t>IFSCCODE-Confirm Delete</t>
+  </si>
+  <si>
+    <t>NPCI Codes-Maintain NPCI Codes</t>
+  </si>
+  <si>
+    <t>NPCI Codes-List NPCI Codes</t>
+  </si>
+  <si>
+    <t>DB Loads</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Upload</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-List</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Add</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Approve</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Modify</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Delete</t>
+  </si>
+  <si>
+    <t>Sub-Member IFSCCODE-Confirm Delete</t>
+  </si>
+  <si>
+    <t>Parameter Maintenance</t>
+  </si>
+  <si>
+    <t>Distribution Sets-List</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Add</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Approve</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Modify</t>
+  </si>
+  <si>
+    <t>Distribution Sets-Delete</t>
+  </si>
+  <si>
+    <t>Messages-View</t>
+  </si>
+  <si>
+    <t>Messages-New</t>
+  </si>
+  <si>
+    <t>Schedule-List</t>
+  </si>
+  <si>
+    <t>Schedule-New</t>
+  </si>
+  <si>
+    <t>Schedule-Modify</t>
+  </si>
+  <si>
+    <t>Schedule-Control</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-List</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-Add</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-Modify</t>
+  </si>
+  <si>
+    <t>FTP-SFTP Parameters-FTP-SFTP File List</t>
+  </si>
+  <si>
+    <t>FAQ-Maintain FAQ</t>
+  </si>
+  <si>
+    <t>FAQ-List FAQ</t>
+  </si>
+  <si>
+    <t>Session Maintenance-List</t>
+  </si>
+  <si>
+    <t>Session Maintenance-Add</t>
+  </si>
+  <si>
+    <t>Session Maintenance-Modify</t>
+  </si>
+  <si>
+    <t>Session Maintenance-Delete</t>
+  </si>
+  <si>
+    <t>Name Matching-List</t>
+  </si>
+  <si>
+    <t>Name Matching-Add</t>
+  </si>
+  <si>
+    <t>Name Matching-Modify</t>
+  </si>
+  <si>
+    <t>Name Matching-Delete</t>
+  </si>
+  <si>
+    <t>Corporate-List</t>
+  </si>
+  <si>
+    <t>Corporate-Add</t>
+  </si>
+  <si>
+    <t>Corporate-Modify</t>
+  </si>
+  <si>
+    <t>Corporate-Delete</t>
+  </si>
+  <si>
+    <t>Free Format Code-List</t>
+  </si>
+  <si>
+    <t>Free Format Code-Add</t>
+  </si>
+  <si>
+    <t>Free Format Code-Copy</t>
+  </si>
+  <si>
+    <t>Free Format Code-Approve</t>
+  </si>
+  <si>
+    <t>Free Format Code-Modify</t>
+  </si>
+  <si>
+    <t>Free Format Code-Delete</t>
+  </si>
+  <si>
+    <t>Free Format Code-Confirm Delete</t>
+  </si>
+  <si>
+    <t>File Manager-List</t>
+  </si>
+  <si>
+    <t>File Manager-Approve Posting File</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Create ACH File</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Accept</t>
+  </si>
+  <si>
+    <t>Sponsor Module-Upload</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Upload APBS File</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Reject Future File</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Repost</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Approve Possible Reject</t>
+  </si>
+  <si>
+    <t>Sponsor Module- Export Mis</t>
+  </si>
+  <si>
+    <t>Destination Module-Create Return ACH File</t>
+  </si>
+  <si>
+    <t>Destination Module-Upload Old-New Account Mapper</t>
+  </si>
+  <si>
+    <t>Destination Module-Debit Inward Repost</t>
+  </si>
+  <si>
+    <t>Destination Module-Credit Inward Repost</t>
+  </si>
+  <si>
+    <t>Destination Module-Reffral Debit Sent</t>
+  </si>
+  <si>
+    <t>Destination Module-Reffral Credit Sent</t>
+  </si>
+  <si>
+    <t>Direct Debit Module-List</t>
+  </si>
+  <si>
+    <t>Direct Debit Module-Upload</t>
+  </si>
+  <si>
+    <t>Direct Debit Module-Create Return ACH File</t>
+  </si>
+  <si>
+    <t>Charge Posting-List</t>
+  </si>
+  <si>
+    <t>Charge Posting-Create</t>
+  </si>
+  <si>
+    <t>Charge Posting-Approve</t>
+  </si>
+  <si>
+    <t>Charge Invoice-Charge Invoice</t>
+  </si>
+  <si>
+    <t>Vendor Charge Invoice</t>
+  </si>
+  <si>
+    <t>Name Match Library-List</t>
+  </si>
+  <si>
+    <t>Name Match Library-Approve</t>
+  </si>
+  <si>
+    <t>Name Match Library-Delete</t>
+  </si>
+  <si>
+    <t>Payment-List</t>
+  </si>
+  <si>
+    <t>Payment-Approve Return</t>
+  </si>
+  <si>
+    <t>Payment-Verify Receives</t>
+  </si>
+  <si>
+    <t>Payment-Offline Upload</t>
+  </si>
+  <si>
+    <t>Payment-Referral Return</t>
+  </si>
+  <si>
+    <t>Payment-APB Manual</t>
+  </si>
+  <si>
+    <t>Payment-APB Manual Confirm</t>
+  </si>
+  <si>
+    <t>From Utility-Load Customer File</t>
+  </si>
+  <si>
+    <t>From Utility-Initial Load</t>
+  </si>
+  <si>
+    <t>From Utility-Mandate Image Mapping</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-List Mandates</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Approve Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Create New Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Amend Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Cancel Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Modify Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Mandates Regeneration</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Mandate File Approve</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Reject Mandate</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-API Mismatch Mandate-List</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-API Mismatch Mandate-Retry</t>
+  </si>
+  <si>
+    <t>Sponsor Mandate-Accept/Reject Unmatched API mandates</t>
+  </si>
+  <si>
+    <t>Destination Mandate-List Mandates</t>
+  </si>
+  <si>
+    <t>Destination Mandate-Approve Mandate</t>
+  </si>
+  <si>
+    <t>Destination Mandate-Authorise Mandate</t>
+  </si>
+  <si>
+    <t>Destination Mandate-Authorise Treasury</t>
+  </si>
+  <si>
+    <t>Destination Mandate-Release Parked Mandates</t>
+  </si>
+  <si>
+    <t>List Mandates</t>
+  </si>
+  <si>
+    <t>Approve Mandate</t>
+  </si>
+  <si>
+    <t>Hold Mandate-Hold List</t>
+  </si>
+  <si>
+    <t>Hold Mandate-Add/Modify Hold</t>
+  </si>
+  <si>
+    <t>Hold Mandate-Approve Hold</t>
+  </si>
+  <si>
+    <t>Hold Mandate-Remove Hold</t>
+  </si>
+  <si>
+    <t>Hold Mandate-Confirm Hold Removal</t>
+  </si>
+  <si>
+    <t>Upload Moratorium File</t>
+  </si>
+  <si>
+    <t>Server Folders-Server Folder View</t>
+  </si>
+  <si>
+    <t>Server Folders-Server Folder</t>
+  </si>
+  <si>
+    <t>Guide-Mandate Flow [NPCI]</t>
+  </si>
+  <si>
+    <t>Guide-Mandate In Flow</t>
+  </si>
+  <si>
+    <t>Guide-Mandate Out Flow</t>
+  </si>
+  <si>
+    <t>Server Folder View</t>
+  </si>
+  <si>
+    <t>Transactions-Outward Transactions</t>
+  </si>
+  <si>
+    <t>Transactions-Inward Transactions-ACH Debit</t>
+  </si>
+  <si>
+    <t>Transactions-Inward Transactions-ACH Credit</t>
+  </si>
+  <si>
+    <t>Transactions-Inward Transactions-APB Credit</t>
+  </si>
+  <si>
+    <t>Transactions-Dashboard Technology</t>
+  </si>
+  <si>
+    <t>Transactions-DD Transaction</t>
+  </si>
+  <si>
+    <t>Mandates-Mandate Dashboard(Overview)</t>
+  </si>
+  <si>
+    <t>Mandates-Mandate Dashboard(Daily)</t>
+  </si>
+  <si>
+    <t>Mandates-Outward Mandates</t>
+  </si>
+  <si>
+    <t>Mandates-DD Mandate Dashboard(Overview)</t>
+  </si>
+  <si>
+    <t>Mandates-DD Mandate Dashboard(Daily)</t>
+  </si>
+  <si>
+    <t>Mandates-Inward Mandates</t>
+  </si>
+  <si>
+    <t>Mandate Dashboards- Vendor Mandate Dashboard</t>
+  </si>
+  <si>
+    <t>CBDT-CBDT Dashboard</t>
+  </si>
+  <si>
+    <t>AV- AV Dashboard</t>
+  </si>
+  <si>
+    <t>EPFO-EPFO_Dashboard</t>
+  </si>
+  <si>
+    <t>Report-EOD Reconciliation</t>
+  </si>
+  <si>
+    <t>Report-User Activity</t>
+  </si>
+  <si>
+    <t>Report-Payments-Inward</t>
+  </si>
+  <si>
+    <t>Report-Payments-Outward</t>
+  </si>
+  <si>
+    <t>Report-Payments-Transaction report (Corp)</t>
+  </si>
+  <si>
+    <t>Report-Mandate-Inward Mandate</t>
+  </si>
+  <si>
+    <t>Report-Mandate-Outward Mandate</t>
+  </si>
+  <si>
+    <t>Report-Mandate-Mandate File Report(Schemes)</t>
+  </si>
+  <si>
+    <t>Report-Mandate-Mandate report(Corp)</t>
+  </si>
+  <si>
+    <t>Report-Vendor-Vendor Mandate Report</t>
+  </si>
+  <si>
+    <t>Report-Vendor-Vendor Transaction Report</t>
+  </si>
+  <si>
+    <t>Report-Charging Report-Booking Report</t>
+  </si>
+  <si>
+    <t>Report-Charging Report-Billing Invoice</t>
+  </si>
+  <si>
+    <t>Report-Productivity-Mandate-Inward Mandate</t>
+  </si>
+  <si>
+    <t>Report-Productivity-Mandate-Outward Mandate</t>
+  </si>
+  <si>
+    <t>Report-Summary</t>
+  </si>
+  <si>
+    <t>Report-Aadhar Mapper</t>
+  </si>
+  <si>
+    <t>Report-CBDT Report-CBDT Report</t>
+  </si>
+  <si>
+    <t>Report-Return Memo</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Space Dump</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Space Rebuild</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Web Service Simulator</t>
+  </si>
+  <si>
+    <t>Application Support Tools-System Info</t>
+  </si>
+  <si>
+    <t>Application Support Tools-TraceFile Levels</t>
+  </si>
+  <si>
+    <t>Application Support Tools-DB Explorer</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Lock Management</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Log Explorer</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Param Constants</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-List Branch Details</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-Server Connections</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-Queue Man.</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-Queue Message Uploader</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-Queue Message Downloader</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Branch/Unit Attributes-Log Explorer</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Upload Mandates</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Upload All Mandates</t>
+  </si>
+  <si>
+    <t>Application Support Tools-Mandate Direct Debit Upload</t>
+  </si>
+  <si>
+    <t>Checker3</t>
+  </si>
+  <si>
+    <t>hsgdah</t>
+  </si>
+  <si>
+    <t>Check All/UnCheck All</t>
+  </si>
+  <si>
+    <t>Checker5</t>
+  </si>
+  <si>
     <t>Checker2</t>
   </si>
   <si>
-    <t>Group-List</t>
-  </si>
-  <si>
-    <t>Group-Add</t>
-  </si>
-  <si>
-    <t>Group-Modify</t>
-  </si>
-  <si>
-    <t>Group-Approve</t>
-  </si>
-  <si>
-    <t>Group-Block</t>
-  </si>
-  <si>
-    <t>Group-Unblock</t>
-  </si>
-  <si>
-    <t>Group-Remove</t>
-  </si>
-  <si>
-    <t>Group-ReportBuild</t>
-  </si>
-  <si>
-    <t>Group-ReportView</t>
-  </si>
-  <si>
-    <t>Profiles-List</t>
-  </si>
-  <si>
-    <t>Profiles-Add</t>
-  </si>
-  <si>
-    <t>Profiles-Modify/Repair</t>
-  </si>
-  <si>
-    <t>Profiles-Approve</t>
-  </si>
-  <si>
-    <t>Profiles-Remove</t>
-  </si>
-  <si>
-    <t>Profiles-ReportBuild</t>
-  </si>
-  <si>
-    <t>Profiles-ReportView</t>
-  </si>
-  <si>
-    <t>Login Matrix-List</t>
-  </si>
-  <si>
-    <t>Login Matrix-Add</t>
-  </si>
-  <si>
-    <t>Login Matrix-Modify</t>
-  </si>
-  <si>
-    <t>Login Matrix-Delete</t>
-  </si>
-  <si>
-    <t>Environment-Global/Processes</t>
-  </si>
-  <si>
-    <t>Environment-Run</t>
-  </si>
-  <si>
-    <t>Environment-Show</t>
-  </si>
-  <si>
-    <t>Calendar-View</t>
-  </si>
-  <si>
-    <t>Calendar-Create</t>
-  </si>
-  <si>
-    <t>Calendar-Modify/Repair</t>
-  </si>
-  <si>
-    <t>Calendar-Approve</t>
-  </si>
-  <si>
-    <t>Certificate-List</t>
-  </si>
-  <si>
-    <t>Certificate-Add</t>
-  </si>
-  <si>
-    <t>Certificate-Modify</t>
-  </si>
-  <si>
-    <t>Certificate-Delete</t>
-  </si>
-  <si>
-    <t>NPCI Certificate-List</t>
-  </si>
-  <si>
-    <t>NPCI Certificate-Add</t>
-  </si>
-  <si>
-    <t>NPCI Certificate-Modify</t>
-  </si>
-  <si>
-    <t>NPCI Certificate-Delete</t>
-  </si>
-  <si>
-    <t>Customer-List</t>
-  </si>
-  <si>
-    <t>Customer-Add</t>
-  </si>
-  <si>
-    <t>Customer-Approve</t>
-  </si>
-  <si>
-    <t>Customer-Modify</t>
-  </si>
-  <si>
-    <t>Customer-Delete</t>
-  </si>
-  <si>
-    <t>Customer-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Customer-Scheme/Format Code Mapping</t>
-  </si>
-  <si>
-    <t>Scheme-List</t>
-  </si>
-  <si>
-    <t>Scheme-Add</t>
-  </si>
-  <si>
-    <t>Scheme-Approve</t>
-  </si>
-  <si>
-    <t>Scheme-Modify</t>
-  </si>
-  <si>
-    <t>Scheme-Delete</t>
-  </si>
-  <si>
-    <t>Scheme-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Scheme-Upload</t>
-  </si>
-  <si>
-    <t>Scheme-Download</t>
-  </si>
-  <si>
-    <t>Relationship Manager-List</t>
-  </si>
-  <si>
-    <t>Relationship Manager-Add</t>
-  </si>
-  <si>
-    <t>Relationship Manager-Approve</t>
-  </si>
-  <si>
-    <t>Relationship Manager-Modify</t>
-  </si>
-  <si>
-    <t>Relationship Manager-Delete</t>
-  </si>
-  <si>
-    <t>Relationship Manager-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Miscellaneous-List</t>
-  </si>
-  <si>
-    <t>Miscellaneous-Add</t>
-  </si>
-  <si>
-    <t>Miscellaneous-Approve</t>
-  </si>
-  <si>
-    <t>Miscellaneous-Modify</t>
-  </si>
-  <si>
-    <t>Miscellaneous-Delete</t>
-  </si>
-  <si>
-    <t>Miscellaneous-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Accounting-List</t>
-  </si>
-  <si>
-    <t>Accounting-Add</t>
-  </si>
-  <si>
-    <t>Accounting-Approve</t>
-  </si>
-  <si>
-    <t>Accounting-Modify</t>
-  </si>
-  <si>
-    <t>Accounting-Delete</t>
-  </si>
-  <si>
-    <t>Accounting-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Authorization-List</t>
-  </si>
-  <si>
-    <t>Authorization-Add</t>
-  </si>
-  <si>
-    <t>Authorization-Approve</t>
-  </si>
-  <si>
-    <t>Authorization-Modify</t>
-  </si>
-  <si>
-    <t>Authorization-Delete</t>
-  </si>
-  <si>
-    <t>Authorization-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Alert and Notification-List</t>
-  </si>
-  <si>
-    <t>Alert and Notification-Add</t>
-  </si>
-  <si>
-    <t>Alert and Notification-Approve</t>
-  </si>
-  <si>
-    <t>Alert and Notification-Modify</t>
-  </si>
-  <si>
-    <t>Alert and Notification-Delete</t>
-  </si>
-  <si>
-    <t>Alert and Notification-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-List</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-Add</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-Approve</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-Modify</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-Delete</t>
-  </si>
-  <si>
-    <t>Mode Of Operation-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Industry Type-List</t>
-  </si>
-  <si>
-    <t>Industry Type-Add</t>
-  </si>
-  <si>
-    <t>Industry Type-Approve</t>
-  </si>
-  <si>
-    <t>Industry Type-Modify</t>
-  </si>
-  <si>
-    <t>Industry Type-Delete</t>
-  </si>
-  <si>
-    <t>Industry Type-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Business Group-List</t>
-  </si>
-  <si>
-    <t>Business Group-Add</t>
-  </si>
-  <si>
-    <t>Business Group-Approve</t>
-  </si>
-  <si>
-    <t>Business Group-Modify</t>
-  </si>
-  <si>
-    <t>Business Group-Delete</t>
-  </si>
-  <si>
-    <t>Business Group-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Duplicate Check-List</t>
-  </si>
-  <si>
-    <t>Duplicate Check-Add</t>
-  </si>
-  <si>
-    <t>Duplicate Check-Approve</t>
-  </si>
-  <si>
-    <t>Duplicate Check-Modify</t>
-  </si>
-  <si>
-    <t>Duplicate Check-Delete</t>
-  </si>
-  <si>
-    <t>Duplicate Check-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Represent Mapping-List</t>
-  </si>
-  <si>
-    <t>Represent Mapping-Add</t>
-  </si>
-  <si>
-    <t>Represent Mapping-Approve</t>
-  </si>
-  <si>
-    <t>Represent Mapping-Modify</t>
-  </si>
-  <si>
-    <t>Represent Mapping-Delete</t>
-  </si>
-  <si>
-    <t>Represent Mapping-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Vendor-List</t>
-  </si>
-  <si>
-    <t>Vendor-Add</t>
-  </si>
-  <si>
-    <t>Vendor-Approve</t>
-  </si>
-  <si>
-    <t>Vendor-Modify</t>
-  </si>
-  <si>
-    <t>Vendor-Delete</t>
-  </si>
-  <si>
-    <t>Vendor-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Vendor-Scheme/Format Code Mapping</t>
-  </si>
-  <si>
-    <t>Charge-List</t>
-  </si>
-  <si>
-    <t>Charge-Add</t>
-  </si>
-  <si>
-    <t>Charge-Approve</t>
-  </si>
-  <si>
-    <t>Charge-Modify</t>
-  </si>
-  <si>
-    <t>Charge-Delete</t>
-  </si>
-  <si>
-    <t>Charge-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Corporate Charge Posting-List</t>
-  </si>
-  <si>
-    <t>Corporate Charge Posting-Add</t>
-  </si>
-  <si>
-    <t>Corporate Charge Posting-Modify</t>
-  </si>
-  <si>
-    <t>Corporate Charge Posting-Generate Report</t>
-  </si>
-  <si>
-    <t>Corporate Charge Posting-Charge Posting</t>
-  </si>
-  <si>
-    <t>IFSCCODE-List</t>
-  </si>
-  <si>
-    <t>IFSCCODE-Add</t>
-  </si>
-  <si>
-    <t>IFSCCODE-Approve</t>
-  </si>
-  <si>
-    <t>IFSCCODE-Modify</t>
-  </si>
-  <si>
-    <t>IFSCCODE-Delete</t>
-  </si>
-  <si>
-    <t>IFSCCODE-Confirm Delete</t>
-  </si>
-  <si>
-    <t>NPCI Codes-Maintain NPCI Codes</t>
-  </si>
-  <si>
-    <t>NPCI Codes-List NPCI Codes</t>
-  </si>
-  <si>
-    <t>DB Loads</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Upload</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-List</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Add</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Approve</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Modify</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Delete</t>
-  </si>
-  <si>
-    <t>Sub-Member IFSCCODE-Confirm Delete</t>
-  </si>
-  <si>
-    <t>Parameter Maintenance</t>
-  </si>
-  <si>
-    <t>Distribution Sets-List</t>
-  </si>
-  <si>
-    <t>Distribution Sets-Add</t>
-  </si>
-  <si>
-    <t>Distribution Sets-Approve</t>
-  </si>
-  <si>
-    <t>Distribution Sets-Modify</t>
-  </si>
-  <si>
-    <t>Distribution Sets-Delete</t>
-  </si>
-  <si>
-    <t>Messages-View</t>
-  </si>
-  <si>
-    <t>Messages-New</t>
-  </si>
-  <si>
-    <t>Schedule-List</t>
-  </si>
-  <si>
-    <t>Schedule-New</t>
-  </si>
-  <si>
-    <t>Schedule-Modify</t>
-  </si>
-  <si>
-    <t>Schedule-Control</t>
-  </si>
-  <si>
-    <t>FTP-SFTP Parameters-List</t>
-  </si>
-  <si>
-    <t>FTP-SFTP Parameters-Add</t>
-  </si>
-  <si>
-    <t>FTP-SFTP Parameters-Modify</t>
-  </si>
-  <si>
-    <t>FTP-SFTP Parameters-FTP-SFTP File List</t>
-  </si>
-  <si>
-    <t>FAQ-Maintain FAQ</t>
-  </si>
-  <si>
-    <t>FAQ-List FAQ</t>
-  </si>
-  <si>
-    <t>Session Maintenance-List</t>
-  </si>
-  <si>
-    <t>Session Maintenance-Add</t>
-  </si>
-  <si>
-    <t>Session Maintenance-Modify</t>
-  </si>
-  <si>
-    <t>Session Maintenance-Delete</t>
-  </si>
-  <si>
-    <t>Name Matching-List</t>
-  </si>
-  <si>
-    <t>Name Matching-Add</t>
-  </si>
-  <si>
-    <t>Name Matching-Modify</t>
-  </si>
-  <si>
-    <t>Name Matching-Delete</t>
-  </si>
-  <si>
-    <t>Corporate-List</t>
-  </si>
-  <si>
-    <t>Corporate-Add</t>
-  </si>
-  <si>
-    <t>Corporate-Modify</t>
-  </si>
-  <si>
-    <t>Corporate-Delete</t>
-  </si>
-  <si>
-    <t>Free Format Code-List</t>
-  </si>
-  <si>
-    <t>Free Format Code-Add</t>
-  </si>
-  <si>
-    <t>Free Format Code-Copy</t>
-  </si>
-  <si>
-    <t>Free Format Code-Approve</t>
-  </si>
-  <si>
-    <t>Free Format Code-Modify</t>
-  </si>
-  <si>
-    <t>Free Format Code-Delete</t>
-  </si>
-  <si>
-    <t>Free Format Code-Confirm Delete</t>
-  </si>
-  <si>
-    <t>File Manager-List</t>
-  </si>
-  <si>
-    <t>File Manager-Approve Posting File</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Create ACH File</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Accept</t>
-  </si>
-  <si>
-    <t>Sponsor Module-Upload</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Upload APBS File</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Reject Future File</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Repost</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Approve Possible Reject</t>
-  </si>
-  <si>
-    <t>Sponsor Module- Export Mis</t>
-  </si>
-  <si>
-    <t>Destination Module-Create Return ACH File</t>
-  </si>
-  <si>
-    <t>Destination Module-Upload Old-New Account Mapper</t>
-  </si>
-  <si>
-    <t>Destination Module-Debit Inward Repost</t>
-  </si>
-  <si>
-    <t>Destination Module-Credit Inward Repost</t>
-  </si>
-  <si>
-    <t>Destination Module-Reffral Debit Sent</t>
-  </si>
-  <si>
-    <t>Destination Module-Reffral Credit Sent</t>
-  </si>
-  <si>
-    <t>Direct Debit Module-List</t>
-  </si>
-  <si>
-    <t>Direct Debit Module-Upload</t>
-  </si>
-  <si>
-    <t>Direct Debit Module-Create Return ACH File</t>
-  </si>
-  <si>
-    <t>Charge Posting-List</t>
-  </si>
-  <si>
-    <t>Charge Posting-Create</t>
-  </si>
-  <si>
-    <t>Charge Posting-Approve</t>
-  </si>
-  <si>
-    <t>Charge Invoice-Charge Invoice</t>
-  </si>
-  <si>
-    <t>Vendor Charge Invoice</t>
-  </si>
-  <si>
-    <t>Name Match Library-List</t>
-  </si>
-  <si>
-    <t>Name Match Library-Approve</t>
-  </si>
-  <si>
-    <t>Name Match Library-Delete</t>
-  </si>
-  <si>
-    <t>Payment-List</t>
-  </si>
-  <si>
-    <t>Payment-Approve Return</t>
-  </si>
-  <si>
-    <t>Payment-Verify Receives</t>
-  </si>
-  <si>
-    <t>Payment-Offline Upload</t>
-  </si>
-  <si>
-    <t>Payment-Referral Return</t>
-  </si>
-  <si>
-    <t>Payment-APB Manual</t>
-  </si>
-  <si>
-    <t>Payment-APB Manual Confirm</t>
-  </si>
-  <si>
-    <t>From Utility-Load Customer File</t>
-  </si>
-  <si>
-    <t>From Utility-Initial Load</t>
-  </si>
-  <si>
-    <t>From Utility-Mandate Image Mapping</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-List Mandates</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Approve Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Create New Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Amend Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Cancel Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Modify Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Mandates Regeneration</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Mandate File Approve</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Reject Mandate</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-API Mismatch Mandate-List</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-API Mismatch Mandate-Retry</t>
-  </si>
-  <si>
-    <t>Sponsor Mandate-Accept/Reject Unmatched API mandates</t>
-  </si>
-  <si>
-    <t>Destination Mandate-List Mandates</t>
-  </si>
-  <si>
-    <t>Destination Mandate-Approve Mandate</t>
-  </si>
-  <si>
-    <t>Destination Mandate-Authorise Mandate</t>
-  </si>
-  <si>
-    <t>Destination Mandate-Authorise Treasury</t>
-  </si>
-  <si>
-    <t>Destination Mandate-Release Parked Mandates</t>
-  </si>
-  <si>
-    <t>List Mandates</t>
-  </si>
-  <si>
-    <t>Approve Mandate</t>
-  </si>
-  <si>
-    <t>Hold Mandate-Hold List</t>
-  </si>
-  <si>
-    <t>Hold Mandate-Add/Modify Hold</t>
-  </si>
-  <si>
-    <t>Hold Mandate-Approve Hold</t>
-  </si>
-  <si>
-    <t>Hold Mandate-Remove Hold</t>
-  </si>
-  <si>
-    <t>Hold Mandate-Confirm Hold Removal</t>
-  </si>
-  <si>
-    <t>Upload Moratorium File</t>
-  </si>
-  <si>
-    <t>Server Folders-Server Folder View</t>
-  </si>
-  <si>
-    <t>Server Folders-Server Folder</t>
-  </si>
-  <si>
-    <t>Guide-Mandate Flow [NPCI]</t>
-  </si>
-  <si>
-    <t>Guide-Mandate In Flow</t>
-  </si>
-  <si>
-    <t>Guide-Mandate Out Flow</t>
-  </si>
-  <si>
-    <t>Server Folder View</t>
-  </si>
-  <si>
-    <t>Transactions-Outward Transactions</t>
-  </si>
-  <si>
-    <t>Transactions-Inward Transactions-ACH Debit</t>
-  </si>
-  <si>
-    <t>Transactions-Inward Transactions-ACH Credit</t>
-  </si>
-  <si>
-    <t>Transactions-Inward Transactions-APB Credit</t>
-  </si>
-  <si>
-    <t>Transactions-Dashboard Technology</t>
-  </si>
-  <si>
-    <t>Transactions-DD Transaction</t>
-  </si>
-  <si>
-    <t>Mandates-Mandate Dashboard(Overview)</t>
-  </si>
-  <si>
-    <t>Mandates-Mandate Dashboard(Daily)</t>
-  </si>
-  <si>
-    <t>Mandates-Outward Mandates</t>
-  </si>
-  <si>
-    <t>Mandates-DD Mandate Dashboard(Overview)</t>
-  </si>
-  <si>
-    <t>Mandates-DD Mandate Dashboard(Daily)</t>
-  </si>
-  <si>
-    <t>Mandates-Inward Mandates</t>
-  </si>
-  <si>
-    <t>Mandate Dashboards- Vendor Mandate Dashboard</t>
-  </si>
-  <si>
-    <t>CBDT-CBDT Dashboard</t>
-  </si>
-  <si>
-    <t>AV- AV Dashboard</t>
-  </si>
-  <si>
-    <t>EPFO-EPFO_Dashboard</t>
-  </si>
-  <si>
-    <t>Report-EOD Reconciliation</t>
-  </si>
-  <si>
-    <t>Report-User Activity</t>
-  </si>
-  <si>
-    <t>Report-Payments-Inward</t>
-  </si>
-  <si>
-    <t>Report-Payments-Outward</t>
-  </si>
-  <si>
-    <t>Report-Payments-Transaction report (Corp)</t>
-  </si>
-  <si>
-    <t>Report-Mandate-Inward Mandate</t>
-  </si>
-  <si>
-    <t>Report-Mandate-Outward Mandate</t>
-  </si>
-  <si>
-    <t>Report-Mandate-Mandate File Report(Schemes)</t>
-  </si>
-  <si>
-    <t>Report-Mandate-Mandate report(Corp)</t>
-  </si>
-  <si>
-    <t>Report-Vendor-Vendor Mandate Report</t>
-  </si>
-  <si>
-    <t>Report-Vendor-Vendor Transaction Report</t>
-  </si>
-  <si>
-    <t>Report-Charging Report-Booking Report</t>
-  </si>
-  <si>
-    <t>Report-Charging Report-Billing Invoice</t>
-  </si>
-  <si>
-    <t>Report-Productivity-Mandate-Inward Mandate</t>
-  </si>
-  <si>
-    <t>Report-Productivity-Mandate-Outward Mandate</t>
-  </si>
-  <si>
-    <t>Report-Summary</t>
-  </si>
-  <si>
-    <t>Report-Aadhar Mapper</t>
-  </si>
-  <si>
-    <t>Report-CBDT Report-CBDT Report</t>
-  </si>
-  <si>
-    <t>Report-Return Memo</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Space Dump</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Space Rebuild</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Web Service Simulator</t>
-  </si>
-  <si>
-    <t>Application Support Tools-System Info</t>
-  </si>
-  <si>
-    <t>Application Support Tools-TraceFile Levels</t>
-  </si>
-  <si>
-    <t>Application Support Tools-DB Explorer</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Lock Management</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Log Explorer</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Param Constants</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-List Branch Details</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-Server Connections</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-Queue Man.</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-Queue Message Uploader</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-Queue Message Downloader</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Branch/Unit Attributes-Log Explorer</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Upload Mandates</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Upload All Mandates</t>
-  </si>
-  <si>
-    <t>Application Support Tools-Mandate Direct Debit Upload</t>
+    <t>TestProfile1113</t>
+  </si>
+  <si>
+    <t>TestProfile1114</t>
+  </si>
+  <si>
+    <t>Checker4</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1861,6 +1870,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2353,2018 +2363,1001 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LD5"/>
+  <dimension ref="A1:LE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KR1" workbookViewId="0">
-      <selection activeCell="LD5" sqref="LD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="6" width="23.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" customWidth="1"/>
+    <col min="15" max="15" width="17.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:317" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="M1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="O1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="R1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="T1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AL1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AO1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AP1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AS1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AT1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AX1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AY1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="BA1" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="BE1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BF1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BG1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BI1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BK1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BL1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BM1" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BN1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BO1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BP1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BR1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BS1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BT1" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BU1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BV1" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BW1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BX1" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BY1" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="BT1" s="19" t="s">
+      <c r="BZ1" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="BU1" s="19" t="s">
+      <c r="CA1" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="BV1" s="19" t="s">
+      <c r="CB1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="BW1" s="19" t="s">
+      <c r="CC1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="BX1" s="19" t="s">
+      <c r="CD1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="BY1" s="19" t="s">
+      <c r="CE1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="BZ1" s="19" t="s">
+      <c r="CF1" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="CA1" s="19" t="s">
+      <c r="CG1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="CB1" s="19" t="s">
+      <c r="CH1" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CI1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="CD1" s="19" t="s">
+      <c r="CJ1" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="CE1" s="19" t="s">
+      <c r="CK1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="CF1" s="19" t="s">
+      <c r="CL1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="CG1" s="19" t="s">
+      <c r="CM1" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="CH1" s="19" t="s">
+      <c r="CN1" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="CI1" s="19" t="s">
+      <c r="CO1" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CP1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="CK1" s="19" t="s">
+      <c r="CQ1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CR1" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="DA1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="DB1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="DC1" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="DD1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="DE1" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="DF1" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="DA1" s="19" t="s">
+      <c r="DG1" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="DB1" s="19" t="s">
+      <c r="DH1" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DI1" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="DD1" s="19" t="s">
+      <c r="DJ1" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="DE1" s="19" t="s">
+      <c r="DK1" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DL1" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DM1" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="DH1" s="19" t="s">
+      <c r="DN1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="DI1" s="19" t="s">
+      <c r="DO1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="DJ1" s="19" t="s">
+      <c r="DP1" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="DK1" s="19" t="s">
+      <c r="DQ1" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="DL1" s="19" t="s">
+      <c r="DR1" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="DM1" s="19" t="s">
+      <c r="DS1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="DN1" s="19" t="s">
+      <c r="DT1" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="DO1" s="19" t="s">
+      <c r="DU1" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="DP1" s="19" t="s">
+      <c r="DV1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="DQ1" s="19" t="s">
+      <c r="DW1" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="DR1" s="19" t="s">
+      <c r="DX1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="DS1" s="19" t="s">
+      <c r="DY1" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="DT1" s="19" t="s">
+      <c r="DZ1" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="DU1" s="19" t="s">
+      <c r="EA1" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="DV1" s="19" t="s">
+      <c r="EB1" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="DW1" s="19" t="s">
+      <c r="EC1" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="DX1" s="19" t="s">
+      <c r="ED1" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="DY1" s="19" t="s">
+      <c r="EE1" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="DZ1" s="19" t="s">
+      <c r="EF1" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="EA1" s="19" t="s">
+      <c r="EG1" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="EB1" s="19" t="s">
+      <c r="EH1" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="EC1" s="19" t="s">
+      <c r="EI1" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="ED1" s="19" t="s">
+      <c r="EJ1" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="EE1" s="19" t="s">
+      <c r="EK1" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="EF1" s="19" t="s">
+      <c r="EL1" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="EG1" s="19" t="s">
+      <c r="EM1" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="EH1" s="19" t="s">
+      <c r="EN1" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="EI1" s="19" t="s">
+      <c r="EO1" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="EJ1" s="19" t="s">
+      <c r="EP1" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="EK1" s="19" t="s">
+      <c r="EQ1" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="EL1" s="19" t="s">
+      <c r="ER1" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="EM1" s="19" t="s">
+      <c r="ES1" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="EN1" s="19" t="s">
+      <c r="ET1" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="EO1" s="19" t="s">
+      <c r="EU1" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="EP1" s="19" t="s">
+      <c r="EV1" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="EQ1" s="19" t="s">
+      <c r="EW1" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="ER1" s="19" t="s">
+      <c r="EX1" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="ES1" s="19" t="s">
+      <c r="EY1" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="ET1" s="19" t="s">
+      <c r="EZ1" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="EU1" s="19" t="s">
+      <c r="FA1" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="EV1" s="19" t="s">
+      <c r="FB1" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="FC1" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="EX1" s="19" t="s">
+      <c r="FD1" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="EY1" s="19" t="s">
+      <c r="FE1" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="FF1" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="FA1" s="19" t="s">
+      <c r="FG1" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="FB1" s="19" t="s">
+      <c r="FH1" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FI1" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FJ1" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FK1" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FL1" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FM1" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="FH1" s="19" t="s">
+      <c r="FN1" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="FI1" s="19" t="s">
+      <c r="FO1" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="FJ1" s="19" t="s">
+      <c r="FP1" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="FK1" s="19" t="s">
+      <c r="FQ1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="FL1" s="19" t="s">
+      <c r="FR1" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="FM1" s="19" t="s">
+      <c r="FS1" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="FN1" s="19" t="s">
+      <c r="FT1" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="FO1" s="19" t="s">
+      <c r="FU1" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="FP1" s="19" t="s">
+      <c r="FV1" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="FQ1" s="19" t="s">
+      <c r="FW1" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="FR1" s="19" t="s">
+      <c r="FX1" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="FS1" s="19" t="s">
+      <c r="FY1" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="FT1" s="19" t="s">
+      <c r="FZ1" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="FU1" s="19" t="s">
+      <c r="GA1" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="FV1" s="19" t="s">
+      <c r="GB1" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="FW1" s="19" t="s">
+      <c r="GC1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="FX1" s="19" t="s">
+      <c r="GD1" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="FY1" s="19" t="s">
+      <c r="GE1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="FZ1" s="19" t="s">
+      <c r="GF1" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="GA1" s="19" t="s">
+      <c r="GG1" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="GB1" s="19" t="s">
+      <c r="GH1" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="GC1" s="19" t="s">
+      <c r="GI1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="GD1" s="19" t="s">
+      <c r="GJ1" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="GE1" s="19" t="s">
+      <c r="GK1" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="GF1" s="19" t="s">
+      <c r="GL1" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="GG1" s="19" t="s">
+      <c r="GM1" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="GH1" s="19" t="s">
+      <c r="GN1" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="GI1" s="19" t="s">
+      <c r="GO1" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="GJ1" s="19" t="s">
+      <c r="GP1" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="GK1" s="19" t="s">
+      <c r="GQ1" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="GL1" s="19" t="s">
+      <c r="GR1" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="GM1" s="19" t="s">
+      <c r="GS1" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="GN1" s="19" t="s">
+      <c r="GT1" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="GO1" s="19" t="s">
+      <c r="GU1" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="GP1" s="19" t="s">
+      <c r="GV1" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="GQ1" s="19" t="s">
+      <c r="GW1" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="GR1" s="19" t="s">
+      <c r="GX1" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="GS1" s="19" t="s">
+      <c r="GY1" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="GT1" s="19" t="s">
+      <c r="GZ1" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="GU1" s="19" t="s">
+      <c r="HA1" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="GV1" s="19" t="s">
+      <c r="HB1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="GW1" s="19" t="s">
+      <c r="HC1" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="GX1" s="19" t="s">
+      <c r="HD1" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="GY1" s="19" t="s">
+      <c r="HE1" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="GZ1" s="19" t="s">
+      <c r="HF1" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="HA1" s="19" t="s">
+      <c r="HG1" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="HB1" s="19" t="s">
+      <c r="HH1" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="HC1" s="19" t="s">
+      <c r="HI1" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="HD1" s="19" t="s">
+      <c r="HJ1" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="HE1" s="19" t="s">
+      <c r="HK1" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="HF1" s="19" t="s">
+      <c r="HL1" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="HG1" s="19" t="s">
+      <c r="HM1" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="HH1" s="19" t="s">
+      <c r="HN1" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="HI1" s="19" t="s">
+      <c r="HO1" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="HJ1" s="19" t="s">
+      <c r="HP1" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="HK1" s="19" t="s">
+      <c r="HQ1" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="HL1" s="19" t="s">
+      <c r="HR1" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="HM1" s="19" t="s">
+      <c r="HS1" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="HN1" s="19" t="s">
+      <c r="HT1" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="HO1" s="19" t="s">
+      <c r="HU1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="HP1" s="19" t="s">
+      <c r="HV1" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="HQ1" s="19" t="s">
+      <c r="HW1" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="HR1" s="19" t="s">
+      <c r="HX1" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="HS1" s="19" t="s">
+      <c r="HY1" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="HT1" s="19" t="s">
+      <c r="HZ1" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="HU1" s="19" t="s">
+      <c r="IA1" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="HV1" s="19" t="s">
+      <c r="IB1" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="HW1" s="19" t="s">
+      <c r="IC1" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="HX1" s="19" t="s">
+      <c r="ID1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="HY1" s="19" t="s">
+      <c r="IE1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="HZ1" s="19" t="s">
+      <c r="IF1" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="IA1" s="19" t="s">
+      <c r="IG1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="IB1" s="19" t="s">
+      <c r="IH1" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="IC1" s="19" t="s">
+      <c r="II1" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="ID1" s="19" t="s">
+      <c r="IJ1" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="IE1" s="19" t="s">
+      <c r="IK1" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="IF1" s="19" t="s">
+      <c r="IL1" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="IG1" s="19" t="s">
+      <c r="IM1" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="IH1" s="19" t="s">
+      <c r="IN1" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="II1" s="19" t="s">
+      <c r="IO1" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="IJ1" s="19" t="s">
+      <c r="IP1" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="IK1" s="19" t="s">
+      <c r="IQ1" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="IL1" s="19" t="s">
+      <c r="IR1" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="IM1" s="19" t="s">
+      <c r="IS1" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="IN1" s="19" t="s">
+      <c r="IT1" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="IO1" s="19" t="s">
+      <c r="IU1" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="IP1" s="19" t="s">
+      <c r="IV1" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="IQ1" s="19" t="s">
+      <c r="IW1" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="IR1" s="19" t="s">
+      <c r="IX1" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="IS1" s="19" t="s">
+      <c r="IY1" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="IT1" s="19" t="s">
+      <c r="IZ1" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="IU1" s="19" t="s">
+      <c r="JA1" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="IV1" s="19" t="s">
+      <c r="JB1" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="IW1" s="19" t="s">
+      <c r="JC1" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="IX1" s="19" t="s">
+      <c r="JD1" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="IY1" s="19" t="s">
+      <c r="JE1" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="IZ1" s="19" t="s">
+      <c r="JF1" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="JA1" s="19" t="s">
+      <c r="JG1" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="JB1" s="19" t="s">
+      <c r="JH1" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="JC1" s="19" t="s">
+      <c r="JI1" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="JD1" s="19" t="s">
+      <c r="JJ1" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="JE1" s="19" t="s">
+      <c r="JK1" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="JF1" s="19" t="s">
+      <c r="JL1" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="JG1" s="19" t="s">
+      <c r="JM1" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="JH1" s="19" t="s">
+      <c r="JN1" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="JI1" s="19" t="s">
+      <c r="JO1" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="JJ1" s="19" t="s">
+      <c r="JP1" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="JK1" s="19" t="s">
+      <c r="JQ1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="JL1" s="19" t="s">
+      <c r="JR1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="JM1" s="19" t="s">
+      <c r="JS1" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="JN1" s="19" t="s">
+      <c r="JT1" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="JO1" s="19" t="s">
+      <c r="JU1" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="JP1" s="19" t="s">
+      <c r="JV1" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="JQ1" s="19" t="s">
+      <c r="JW1" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="JR1" s="19" t="s">
+      <c r="JX1" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="JS1" s="19" t="s">
+      <c r="JY1" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="JT1" s="19" t="s">
+      <c r="JZ1" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="JU1" s="19" t="s">
+      <c r="KA1" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="JV1" s="19" t="s">
+      <c r="KB1" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="JW1" s="19" t="s">
+      <c r="KC1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="JX1" s="19" t="s">
+      <c r="KD1" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="JY1" s="19" t="s">
+      <c r="KE1" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="JZ1" s="19" t="s">
+      <c r="KF1" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="KA1" s="19" t="s">
+      <c r="KG1" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="KB1" s="19" t="s">
+      <c r="KH1" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="KC1" s="19" t="s">
+      <c r="KI1" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="KD1" s="19" t="s">
+      <c r="KJ1" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="KE1" s="19" t="s">
+      <c r="KK1" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="KF1" s="19" t="s">
+      <c r="KL1" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="KG1" s="19" t="s">
+      <c r="KM1" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="KH1" s="19" t="s">
+      <c r="KN1" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="KI1" s="19" t="s">
+      <c r="KO1" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="KJ1" s="19" t="s">
+      <c r="KP1" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="KK1" s="19" t="s">
+      <c r="KQ1" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="KL1" s="19" t="s">
+      <c r="KR1" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="KM1" s="19" t="s">
+      <c r="KS1" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="KN1" s="19" t="s">
+      <c r="KT1" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="KO1" s="19" t="s">
+      <c r="KU1" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="KP1" s="19" t="s">
+      <c r="KV1" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="KQ1" s="19" t="s">
+      <c r="KW1" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="KR1" s="19" t="s">
+      <c r="KX1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="KS1" s="19" t="s">
+      <c r="KY1" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="KT1" s="19" t="s">
+      <c r="KZ1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="KU1" s="19" t="s">
+      <c r="LA1" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="KV1" s="19" t="s">
+      <c r="LB1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="KW1" s="19" t="s">
+      <c r="LC1" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="KX1" s="19" t="s">
+      <c r="LD1" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="KY1" s="19" t="s">
+      <c r="LE1" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="KZ1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:317" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>525</v>
       </c>
-      <c r="LA1" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="LB1" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="LC1" s="19" t="s">
+    </row>
+    <row r="3" spans="1:317" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>528</v>
       </c>
-      <c r="LD1" s="19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:316" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:316" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:316" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:316" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M5" t="s">
-        <v>168</v>
-      </c>
-      <c r="N5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>168</v>
-      </c>
-      <c r="R5" t="s">
-        <v>168</v>
-      </c>
-      <c r="S5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T5" t="s">
-        <v>168</v>
-      </c>
-      <c r="U5" t="s">
-        <v>168</v>
-      </c>
-      <c r="V5" t="s">
-        <v>168</v>
-      </c>
-      <c r="W5" t="s">
-        <v>168</v>
-      </c>
-      <c r="X5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>168</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>168</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="II5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="IZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="JZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KD5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KE5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KG5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KH5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KI5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KJ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KL5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KM5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KO5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KP5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KQ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KR5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KS5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KT5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KV5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KW5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KX5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KY5" t="s">
-        <v>168</v>
-      </c>
-      <c r="KZ5" t="s">
-        <v>168</v>
-      </c>
-      <c r="LA5" t="s">
-        <v>168</v>
-      </c>
-      <c r="LB5" t="s">
-        <v>168</v>
-      </c>
-      <c r="LC5" t="s">
-        <v>168</v>
-      </c>
-      <c r="LD5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4374,22 +3367,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="9.90625" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>110</v>
@@ -4397,46 +3390,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>177</v>
+      <c r="D7" s="35" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4446,49 +3461,1017 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:LF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:318" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C1" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK1" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO1" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="BR1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="BS1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BT1" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="BU1" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="BV1" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="BW1" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="BX1" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="BY1" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="CA1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="CB1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="CC1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="CD1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="CE1" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="CF1" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="CG1" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="CI1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="CJ1" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="CK1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="CL1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="CM1" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="CN1" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO1" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="CP1" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="CQ1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="CR1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="CS1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="CT1" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="CU1" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="CV1" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="CW1" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="CX1" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="CY1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="CZ1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="DA1" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="DB1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="DC1" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="DD1" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="DE1" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="DF1" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="DG1" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="DH1" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="DI1" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="DJ1" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="DK1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="DL1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="DM1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="DN1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="DO1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="DP1" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="DQ1" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="DR1" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="DS1" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="DT1" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="DU1" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="DV1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="DW1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="DX1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="DY1" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="DZ1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="EA1" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="EB1" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="EC1" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="ED1" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="EE1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="EF1" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="EG1" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="EH1" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="EI1" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="EJ1" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="EK1" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="EL1" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="EM1" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="EN1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="EO1" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="EP1" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="EQ1" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="ER1" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="ES1" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="ET1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="EU1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="EV1" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="EW1" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="EX1" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="EY1" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="EZ1" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="FA1" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="FB1" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="FC1" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="FD1" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="FE1" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="FF1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG1" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="FH1" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="FI1" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="FJ1" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="FK1" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="FL1" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="FM1" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="FN1" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="FO1" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="FP1" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="FQ1" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="FR1" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="FS1" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="FT1" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU1" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="FV1" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="FW1" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="FX1" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY1" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="FZ1" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="GA1" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="GB1" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="GC1" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="GD1" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="GE1" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="GF1" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="GG1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="GH1" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="GI1" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="GJ1" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="GK1" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="GL1" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="GM1" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="GN1" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="GO1" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="GP1" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="GQ1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="GR1" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="GS1" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="GT1" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="GU1" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="GV1" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="GW1" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="GX1" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="GY1" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="GZ1" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="HA1" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="HB1" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="HC1" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="HD1" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="HE1" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="HF1" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="HG1" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="HH1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="HI1" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="HJ1" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="HK1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="HL1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="HM1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="HN1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="HO1" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="HP1" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="HQ1" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="HR1" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="HS1" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="HT1" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="HU1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="HV1" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="HW1" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="HX1" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="HY1" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="HZ1" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="IA1" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="IB1" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="IC1" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="ID1" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="IE1" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="IF1" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="IG1" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="IH1" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="II1" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="IJ1" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="IK1" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="IL1" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="IM1" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="IN1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="IO1" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="IP1" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="IQ1" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="IR1" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="IS1" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="IT1" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="IU1" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="IV1" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="IW1" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="IX1" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="IY1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="IZ1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="JA1" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="JB1" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="JC1" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="JD1" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="JE1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="JF1" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="JG1" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="JH1" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="JI1" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="JJ1" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="JK1" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="JL1" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="JM1" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="JN1" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="JO1" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="JP1" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="JQ1" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="JR1" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="JS1" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="JT1" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="JU1" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="JV1" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="JW1" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="JX1" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="JY1" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="JZ1" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="KA1" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="KB1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="KC1" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="KD1" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="KE1" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="KF1" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="KG1" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="KH1" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="KI1" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="KJ1" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="KK1" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="KL1" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="KM1" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="KN1" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="KO1" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="KP1" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="KQ1" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="KR1" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="KS1" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="KT1" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="KU1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="KV1" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="KW1" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="KX1" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="KY1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="KZ1" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="LA1" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="LB1" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="LC1" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="LD1" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="LE1" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="LF1" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:318" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
@@ -4520,24 +4503,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4562,32 +4545,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4612,48 +4595,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -4661,88 +4644,88 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4770,105 +4753,105 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>65</v>
@@ -4877,45 +4860,45 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4943,40 +4926,40 @@
         <v>116</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5003,29 +4986,29 @@
         <v>116</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5054,18 +5037,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5231,18 +5214,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5298,22 +5281,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6164,7 +6147,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -6251,262 +6234,262 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="E8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="F9" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="G10" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6529,46 +6512,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6592,7 +6575,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -6625,31 +6608,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -6657,28 +6640,28 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -6686,28 +6669,28 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -6715,28 +6698,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -6744,28 +6727,28 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -6773,28 +6756,28 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -6802,28 +6785,28 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -6831,28 +6814,28 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -6860,28 +6843,28 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="G9" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -6889,28 +6872,28 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="H10" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6937,57 +6920,57 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -6996,15 +6979,15 @@
         <v>50</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -7013,7 +6996,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7038,23 +7021,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7089,12 +7072,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
+++ b/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="3710" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="3290" firstSheet="32" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="User_Add" sheetId="3" r:id="rId1"/>
@@ -13,38 +13,37 @@
     <sheet name="User_Approve" sheetId="4" r:id="rId4"/>
     <sheet name="User_View" sheetId="6" r:id="rId5"/>
     <sheet name="User_Modify" sheetId="8" r:id="rId6"/>
-    <sheet name="BlockUnBlock_View_User" sheetId="11" r:id="rId7"/>
-    <sheet name="Profile_Add" sheetId="17" r:id="rId8"/>
-    <sheet name="Profile_Approve" sheetId="43" r:id="rId9"/>
-    <sheet name="Profile_Modify" sheetId="18" r:id="rId10"/>
-    <sheet name="Profile_Remove" sheetId="19" r:id="rId11"/>
-    <sheet name="Profile_List" sheetId="42" r:id="rId12"/>
-    <sheet name="Group_Add" sheetId="37" r:id="rId13"/>
-    <sheet name="Group_Modify" sheetId="41" r:id="rId14"/>
-    <sheet name="Group_Approve" sheetId="36" r:id="rId15"/>
-    <sheet name="Group_List" sheetId="38" r:id="rId16"/>
-    <sheet name="Group_Remove" sheetId="39" r:id="rId17"/>
-    <sheet name="Group_Block" sheetId="40" r:id="rId18"/>
-    <sheet name="IFSC_List" sheetId="5" r:id="rId19"/>
-    <sheet name="IFSC_Add" sheetId="9" r:id="rId20"/>
-    <sheet name="IFSC_Delete" sheetId="10" r:id="rId21"/>
-    <sheet name="Calendar_Add_Valid" sheetId="20" r:id="rId22"/>
-    <sheet name="Calendar_Add_Invalid" sheetId="12" r:id="rId23"/>
-    <sheet name="Calendar_Approve_View" sheetId="13" r:id="rId24"/>
-    <sheet name="Calendar_View" sheetId="14" r:id="rId25"/>
-    <sheet name="Calendar_Modify" sheetId="15" r:id="rId26"/>
-    <sheet name="DBLoad_Upload_IFSCCodes" sheetId="16" r:id="rId27"/>
-    <sheet name="Schedule_Add_ValidData" sheetId="26" r:id="rId28"/>
-    <sheet name="Schedule_Add_InvalidData" sheetId="27" r:id="rId29"/>
-    <sheet name="Schedule_List" sheetId="28" r:id="rId30"/>
-    <sheet name="Schedule_Modify" sheetId="29" r:id="rId31"/>
-    <sheet name="NameMatching_Add" sheetId="31" r:id="rId32"/>
-    <sheet name="NameMatching_List" sheetId="32" r:id="rId33"/>
-    <sheet name="NameMatching_Modify" sheetId="33" r:id="rId34"/>
-    <sheet name="NameMatching_Delete" sheetId="34" r:id="rId35"/>
+    <sheet name="Profile_Add" sheetId="17" r:id="rId7"/>
+    <sheet name="Profile_Approve" sheetId="43" r:id="rId8"/>
+    <sheet name="Profile_Modify" sheetId="18" r:id="rId9"/>
+    <sheet name="Profile_Remove" sheetId="19" r:id="rId10"/>
+    <sheet name="Profile_List" sheetId="42" r:id="rId11"/>
+    <sheet name="Group_Add" sheetId="37" r:id="rId12"/>
+    <sheet name="Group_Modify" sheetId="41" r:id="rId13"/>
+    <sheet name="Group_Approve" sheetId="36" r:id="rId14"/>
+    <sheet name="Group_List" sheetId="38" r:id="rId15"/>
+    <sheet name="Group_Remove" sheetId="39" r:id="rId16"/>
+    <sheet name="Group_Block" sheetId="40" r:id="rId17"/>
+    <sheet name="IFSC_List" sheetId="5" r:id="rId18"/>
+    <sheet name="IFSC_Add" sheetId="9" r:id="rId19"/>
+    <sheet name="IFSC_Delete" sheetId="10" r:id="rId20"/>
+    <sheet name="Calendar_Add_Valid" sheetId="20" r:id="rId21"/>
+    <sheet name="Calendar_Add_Invalid" sheetId="12" r:id="rId22"/>
+    <sheet name="Calendar_Approve_View" sheetId="13" r:id="rId23"/>
+    <sheet name="Calendar_View" sheetId="14" r:id="rId24"/>
+    <sheet name="Calendar_Modify" sheetId="15" r:id="rId25"/>
+    <sheet name="DBLoad_Upload_IFSCCodes" sheetId="16" r:id="rId26"/>
+    <sheet name="Schedule_Add_ValidData" sheetId="26" r:id="rId27"/>
+    <sheet name="Schedule_Add_InvalidData" sheetId="27" r:id="rId28"/>
+    <sheet name="Schedule_List" sheetId="28" r:id="rId29"/>
+    <sheet name="Schedule_Modify" sheetId="29" r:id="rId30"/>
+    <sheet name="NameMatching_Add" sheetId="31" r:id="rId31"/>
+    <sheet name="NameMatching_List" sheetId="32" r:id="rId32"/>
+    <sheet name="NameMatching_Modify" sheetId="45" r:id="rId33"/>
+    <sheet name="ModeOfOperation_List" sheetId="46" r:id="rId34"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N11"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="530">
   <si>
     <t>Username</t>
   </si>
@@ -1638,6 +1637,12 @@
   </si>
   <si>
     <t>TestChecker108</t>
+  </si>
+  <si>
+    <t>Mode Of Operation Code</t>
+  </si>
+  <si>
+    <t>dfdfds</t>
   </si>
 </sst>
 </file>
@@ -2201,1021 +2206,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LF4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:318" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR1" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS1" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU1" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV1" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW1" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY1" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ1" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="BA1" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="BB1" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC1" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD1" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="BE1" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF1" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="BG1" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH1" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI1" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="BJ1" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="BK1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL1" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM1" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="BN1" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO1" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP1" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ1" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR1" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="BS1" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="BT1" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="BU1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="BV1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="BW1" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="BX1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="BY1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="BZ1" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="CA1" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="CB1" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC1" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="CD1" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="CE1" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="CF1" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="CG1" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="CH1" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="CI1" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="CJ1" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="CK1" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="CL1" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="CM1" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN1" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="CO1" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="CP1" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="CQ1" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="CR1" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="CS1" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="CT1" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="CU1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="CV1" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="CW1" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="CX1" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="CY1" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="CZ1" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="DA1" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="DB1" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="DC1" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="DD1" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="DE1" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="DF1" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="DG1" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH1" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="DI1" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="DJ1" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="DK1" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="DL1" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="DM1" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="DN1" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="DO1" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="DP1" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="DQ1" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="DR1" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="DS1" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="DT1" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="DU1" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="DV1" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="DW1" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="DX1" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="DY1" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="DZ1" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="EA1" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="EB1" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="EC1" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="ED1" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="EE1" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="EF1" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="EG1" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="EH1" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="EI1" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="EJ1" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="EK1" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="EL1" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="EM1" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="EN1" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="EO1" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="EP1" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="EQ1" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="ER1" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="ES1" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="ET1" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="EU1" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="EV1" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="EW1" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="EX1" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="EY1" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="EZ1" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="FA1" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="FB1" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="FC1" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="FD1" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="FE1" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="FF1" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="FG1" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="FH1" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="FI1" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="FJ1" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="FK1" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="FL1" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="FM1" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="FN1" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="FO1" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="FP1" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="FQ1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="FR1" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="FS1" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="FT1" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="FU1" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="FV1" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="FW1" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="FX1" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="FY1" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="FZ1" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="GA1" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="GB1" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="GC1" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="GD1" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="GE1" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="GF1" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="GG1" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="GH1" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="GI1" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="GJ1" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="GK1" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="GL1" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="GM1" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN1" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="GO1" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="GP1" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="GQ1" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="GR1" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS1" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="GT1" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="GU1" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="GV1" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="GW1" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GX1" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="GY1" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="GZ1" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="HA1" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="HB1" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="HC1" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="HD1" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="HE1" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="HF1" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="HG1" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="HH1" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="HI1" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="HJ1" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="HK1" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="HL1" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="HM1" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="HN1" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="HO1" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="HP1" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="HQ1" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="HR1" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="HS1" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="HT1" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="HU1" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="HV1" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="HW1" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="HX1" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="HY1" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="HZ1" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="IA1" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="IB1" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="IC1" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="ID1" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="IE1" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="IF1" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="IG1" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="IH1" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="II1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="IJ1" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="IK1" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="IL1" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="IM1" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="IN1" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="IO1" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="IP1" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="IQ1" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="IR1" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="IS1" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="IT1" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="IU1" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="IV1" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="IW1" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="IX1" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="IY1" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="IZ1" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="JA1" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="JB1" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="JC1" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="JD1" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="JE1" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="JF1" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="JG1" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="JH1" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="JI1" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="JJ1" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="JK1" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="JL1" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="JM1" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="JN1" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="JO1" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="JP1" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="JQ1" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="JR1" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="JS1" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="JT1" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="JU1" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="JV1" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="JW1" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="JX1" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="JY1" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="JZ1" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="KA1" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="KB1" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="KC1" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="KD1" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="KE1" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="KF1" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="KG1" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="KH1" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="KI1" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="KJ1" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="KK1" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="KL1" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="KM1" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="KN1" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="KO1" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="KP1" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="KQ1" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="KR1" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="KS1" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="KT1" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="KU1" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="KV1" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="KW1" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="KX1" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="KY1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="KZ1" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="LA1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="LB1" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="LC1" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="LD1" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="LE1" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="LF1" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:318" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:318" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:318" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3313,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3468,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -3641,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3702,7 +2692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3751,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3791,7 +2781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3831,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3896,6 +2886,199 @@
       <c r="F3" s="5" t="s">
         <v>116</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3968,199 +3151,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="21" max="21" width="15.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4235,7 +3225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -4338,7 +3328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -4435,7 +3425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -4539,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4674,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -4755,7 +3745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4824,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -5105,7 +4095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5160,6 +4150,35 @@
       </c>
       <c r="C4" t="s">
         <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5220,35 +4239,6 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5559,12 +4549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5663,12 +4653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5703,43 +4693,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>529</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5747,7 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6096,51 +5120,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LE3"/>
   <sheetViews>
@@ -7144,7 +6123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7236,4 +6215,1019 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:LF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA1" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC1" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD1" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE1" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH1" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="BI1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="BJ1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="BN1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="BU1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BV1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="BW1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="BX1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="BY1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="CA1" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="CD1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="CE1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="CF1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CH1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="CI1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="CJ1" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="CM1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="CN1" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="CO1" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="CP1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="CQ1" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="CS1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="CT1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="CU1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV1" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="CW1" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="CX1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="CY1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="CZ1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="DA1" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="DB1" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="DC1" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="DD1" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="DE1" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="DF1" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="DG1" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="DH1" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="DI1" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="DJ1" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="DK1" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="DL1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="DM1" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="DN1" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO1" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="DP1" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="DQ1" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="DR1" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="DS1" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="DT1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="DU1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="DV1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="DW1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="DX1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="DY1" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="DZ1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="EA1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="EB1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="EC1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="ED1" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="EE1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="EF1" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="EG1" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="EH1" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="EI1" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="EJ1" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="EK1" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="EL1" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="EM1" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="EN1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="EO1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="EP1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="EQ1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="ER1" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="ES1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="ET1" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="EU1" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="EV1" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="EW1" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="EX1" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="EY1" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="EZ1" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="FA1" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="FB1" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="FC1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="FD1" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="FE1" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="FF1" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="FG1" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="FH1" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="FI1" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="FJ1" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="FK1" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="FL1" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="FM1" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="FN1" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="FO1" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="FP1" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="FQ1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="FR1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="FS1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="FT1" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="FU1" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="FV1" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="FW1" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="FX1" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="FY1" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="FZ1" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="GA1" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="GB1" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="GC1" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="GD1" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="GE1" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="GF1" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="GG1" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="GH1" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="GI1" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="GJ1" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="GK1" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="GL1" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="GM1" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="GN1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="GO1" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="GP1" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="GQ1" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="GR1" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS1" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GT1" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU1" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="GV1" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="GW1" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="GX1" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY1" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="GZ1" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="HA1" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="HB1" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="HC1" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="HD1" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="HE1" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="HF1" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="HG1" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="HH1" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="HI1" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="HJ1" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="HK1" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="HL1" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="HM1" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="HN1" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="HO1" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="HP1" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="HQ1" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="HR1" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="HS1" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="HT1" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="HU1" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="HV1" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="HW1" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="HX1" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="HY1" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="HZ1" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="IA1" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="IB1" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="IC1" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="ID1" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="IE1" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="IF1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="IG1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="IH1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="II1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="IJ1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="IK1" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="IL1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="IM1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="IN1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="IO1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="IP1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="IQ1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="IR1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="IS1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="IT1" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="IU1" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="IV1" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="IW1" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="IX1" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="IY1" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="IZ1" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="JA1" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="JB1" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="JC1" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="JD1" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="JE1" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="JF1" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="JG1" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="JH1" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="JI1" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="JJ1" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="JK1" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="JL1" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="JM1" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="JN1" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="JO1" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="JP1" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="JQ1" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="JR1" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="JS1" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="JT1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="JU1" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="JV1" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="JW1" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="JX1" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="JY1" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="JZ1" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="KA1" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="KB1" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="KC1" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="KD1" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="KE1" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="KF1" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="KG1" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="KH1" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="KI1" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="KJ1" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="KK1" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="KL1" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="KM1" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="KN1" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="KO1" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="KP1" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="KQ1" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="KR1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="KS1" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="KT1" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="KU1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="KV1" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="KW1" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="KX1" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="KY1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="KZ1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="LA1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="LB1" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="LC1" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="LD1" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="LE1" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="LF1" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:318" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
+++ b/src/main/java/COM/KOTAK/QA/CONFIG/Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="3290" firstSheet="32" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="3100" firstSheet="33" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="User_Add" sheetId="3" r:id="rId1"/>
@@ -41,9 +41,10 @@
     <sheet name="NameMatching_List" sheetId="32" r:id="rId32"/>
     <sheet name="NameMatching_Modify" sheetId="45" r:id="rId33"/>
     <sheet name="ModeOfOperation_List" sheetId="46" r:id="rId34"/>
+    <sheet name="ModeOfOperation_Add" sheetId="47" r:id="rId35"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L9"/>
+  <oleSize ref="A1:L8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="537">
   <si>
     <t>Username</t>
   </si>
@@ -1643,6 +1644,27 @@
   </si>
   <si>
     <t>dfdfds</t>
+  </si>
+  <si>
+    <t>CIB Encryption Method</t>
+  </si>
+  <si>
+    <t>Upload Encryption Method</t>
+  </si>
+  <si>
+    <t>SFTP Channel</t>
+  </si>
+  <si>
+    <t>SFTP Encryption Method</t>
+  </si>
+  <si>
+    <t>IsCIBIntegration(Y/N)</t>
+  </si>
+  <si>
+    <t>AES128</t>
+  </si>
+  <si>
+    <t>IsUpload(Y/N)</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4767,6 +4791,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
@@ -4888,7 +5015,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
